--- a/data/trans_dic/P1001-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,71</t>
+          <t>2,57; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,86</t>
+          <t>2,6; 7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,32</t>
+          <t>2,88; 7,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,62</t>
+          <t>3,79; 8,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,93</t>
+          <t>4,23; 10,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,16</t>
+          <t>4,83; 10,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,01</t>
+          <t>4,53; 10,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,94</t>
+          <t>5,51; 9,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,98</t>
+          <t>3,76; 7,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,49</t>
+          <t>4,08; 7,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,59</t>
+          <t>4,33; 7,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,4</t>
+          <t>5,1; 8,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,17</t>
+          <t>2,49; 6,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,55</t>
+          <t>4,16; 9,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,11</t>
+          <t>3,0; 7,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,61</t>
+          <t>1,45; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,84</t>
+          <t>5,9; 11,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,54</t>
+          <t>6,05; 13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,77</t>
+          <t>3,96; 9,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,32</t>
+          <t>6,92; 12,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,36</t>
+          <t>4,74; 8,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,11</t>
+          <t>5,57; 9,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,85</t>
+          <t>4,01; 7,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,24</t>
+          <t>4,33; 7,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,37</t>
+          <t>4,5; 8,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,97</t>
+          <t>6,36; 11,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,39</t>
+          <t>4,99; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,98</t>
+          <t>1,54; 8,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 16,64</t>
+          <t>6,8; 16,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,34</t>
+          <t>13,5; 23,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 20,96</t>
+          <t>8,57; 20,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,62</t>
+          <t>7,8; 15,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,68</t>
+          <t>5,41; 9,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,81</t>
+          <t>9,25; 14,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,23</t>
+          <t>6,65; 10,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,49</t>
+          <t>2,55; 9,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,27</t>
+          <t>6,23; 9,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,68</t>
+          <t>7,37; 10,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,53</t>
+          <t>4,54; 7,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,0</t>
+          <t>5,19; 8,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,01</t>
+          <t>7,75; 12,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,84</t>
+          <t>10,08; 15,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,11</t>
+          <t>9,59; 14,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,49</t>
+          <t>3,83; 9,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 9,83</t>
+          <t>7,29; 9,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 11,99</t>
+          <t>8,83; 11,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,68</t>
+          <t>7,08; 9,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,84</t>
+          <t>4,72; 7,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,48</t>
+          <t>3,95; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,18</t>
+          <t>3,78; 8,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,96</t>
+          <t>6,32; 10,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,17</t>
+          <t>6,19; 11,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,54</t>
+          <t>7,63; 12,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,47; 23,16</t>
+          <t>16,98; 22,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,64</t>
+          <t>14,0; 19,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,39</t>
+          <t>9,69; 15,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,71</t>
+          <t>6,54; 10,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,47</t>
+          <t>12,19; 16,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,69</t>
+          <t>10,97; 14,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,55</t>
+          <t>9,49; 13,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,49</t>
+          <t>1,96; 6,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,62</t>
+          <t>1,83; 7,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,88</t>
+          <t>1,8; 6,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,71</t>
+          <t>1,66; 9,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,38</t>
+          <t>8,22; 11,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,04</t>
+          <t>13,64; 17,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 15,34</t>
+          <t>11,08; 15,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 17,63</t>
+          <t>13,15; 17,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,1</t>
+          <t>7,21; 10,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 15,15</t>
+          <t>11,49; 15,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,93</t>
+          <t>9,37; 12,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,01</t>
+          <t>10,7; 14,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,91</t>
+          <t>5,28; 6,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,99</t>
+          <t>6,08; 7,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,0</t>
+          <t>5,3; 7,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,58</t>
+          <t>4,48; 6,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,43</t>
+          <t>8,4; 10,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,5; 15,94</t>
+          <t>13,4; 15,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 13,5</t>
+          <t>11,05; 13,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,84</t>
+          <t>8,47; 11,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,49</t>
+          <t>7,1; 8,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,12; 11,67</t>
+          <t>10,18; 11,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 10,02</t>
+          <t>8,51; 9,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,07</t>
+          <t>7,01; 9,05</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20525</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18972</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20525</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28269</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20852</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23183</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23759</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33268</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41377</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42155</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44284</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61537</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12198; 30940</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11339; 30718</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12346; 31770</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19171; 44228</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12980; 30797</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15191; 34107</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15714; 35514</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24662; 44455</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29350; 55471</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30603; 58395</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33601; 58991</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48544; 81775</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15665</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26326</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19277</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11788</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31506</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30207</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23664</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35430</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47171</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56533</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42942</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47218</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9139; 25656</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17432; 41154</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11302; 29618</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6541; 21048</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21936; 43817</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20442; 44033</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14756; 34826</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26456; 47908</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34985; 63438</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42155; 73207</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>30092; 57186</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36147; 62195</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33681</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53499</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36015</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18621</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46439</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22912</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17827</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52303</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99938</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58926</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52631</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24423; 46798</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40007; 71247</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26055; 50770</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10281; 59679</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11409; 27853</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35106; 61054</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14241; 33261</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13026; 25513</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38386; 68224</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>82250; 124581</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45773; 74461</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21330; 80756</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95241</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103402</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>67176</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67008</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69261</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>94926</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>97577</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67070</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>164502</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>198329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>164753</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>134078</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>77125; 113106</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>85473; 126722</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52232; 84353</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53638; 84644</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55345; 86881</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>77275; 116182</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>79185; 118187</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37432; 89556</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142438; 189540</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>170059; 228826</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>139863; 191272</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>94828; 158442</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22023</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28703</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52224</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39610</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55800</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>152002</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123278</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112701</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>77823</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>180705</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>175502</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>152311</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13854; 33101</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19247; 40825</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39248; 67694</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29426; 53118</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>43378; 71844</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>128951; 173249</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>103347; 142843</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>81456; 134156</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>60147; 96024</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>154756; 206502</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>149070; 202181</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>124892; 178925</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9750</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9156</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>121161</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>173017</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>141068</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>115987</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>132264</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>182766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>151827</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>125143</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5830; 18705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4886; 18736</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5175; 19139</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3997; 23393</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>102590; 145813</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>151316; 197755</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>119942; 166642</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>100021; 133904</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>111575; 156158</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>158193; 208856</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>128306; 177445</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>107098; 146485</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>198238</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>240652</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>205975</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>190636</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>317202</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>519774</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>432259</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>382283</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>515440</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>760426</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>638234</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>572919</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>172708; 227186</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>207853; 272174</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>179466; 237155</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>151303; 224662</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>283907; 352337</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>475477; 563019</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>390309; 472640</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>303002; 423596</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>472093; 559457</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>709191; 810407</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>588485; 688510</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>487237; 629008</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1001-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
